--- a/public/images/demo_file/newProducts1.xlsx
+++ b/public/images/demo_file/newProducts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5F67C-4B2D-4AE4-BCF1-48E9D1C4DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDE779-EBEC-4D3E-BACF-6C930284485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2DA5CB0E-B45C-4F0E-85D7-13ED1808AAB5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$901</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B557" sqref="B557"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45591,6 +45591,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{39BC329D-FEAE-4DD7-AC12-FD8CC6C2F9D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>